--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Bmp6-Bmpr2.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Bmp6-Bmpr2.xlsx
@@ -543,16 +543,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>21.443826</v>
+        <v>7.739652666666667</v>
       </c>
       <c r="H2">
-        <v>64.331478</v>
+        <v>23.218958</v>
       </c>
       <c r="I2">
-        <v>0.6062978927103765</v>
+        <v>0.6488398532974882</v>
       </c>
       <c r="J2">
-        <v>0.6062978927103765</v>
+        <v>0.6488398532974882</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>32.017979</v>
+        <v>36.81180933333333</v>
       </c>
       <c r="N2">
-        <v>96.05393699999999</v>
+        <v>110.435428</v>
       </c>
       <c r="O2">
-        <v>0.2161524839374963</v>
+        <v>0.2598784967371026</v>
       </c>
       <c r="P2">
-        <v>0.2161524839374964</v>
+        <v>0.2598784967371026</v>
       </c>
       <c r="Q2">
-        <v>686.587970547654</v>
+        <v>284.9106182715582</v>
       </c>
       <c r="R2">
-        <v>6179.291734928885</v>
+        <v>2564.195564444024</v>
       </c>
       <c r="S2">
-        <v>0.1310527955154175</v>
+        <v>0.1686195256980734</v>
       </c>
       <c r="T2">
-        <v>0.1310527955154175</v>
+        <v>0.1686195256980734</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -605,16 +605,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>21.443826</v>
+        <v>7.739652666666667</v>
       </c>
       <c r="H3">
-        <v>64.331478</v>
+        <v>23.218958</v>
       </c>
       <c r="I3">
-        <v>0.6062978927103765</v>
+        <v>0.6488398532974882</v>
       </c>
       <c r="J3">
-        <v>0.6062978927103765</v>
+        <v>0.6488398532974882</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -629,22 +629,22 @@
         <v>83.72704</v>
       </c>
       <c r="O3">
-        <v>0.1884129712323412</v>
+        <v>0.1970278712683331</v>
       </c>
       <c r="P3">
-        <v>0.1884129712323412</v>
+        <v>0.197027871268333</v>
       </c>
       <c r="Q3">
-        <v>598.47602575168</v>
+        <v>216.0060694693689</v>
       </c>
       <c r="R3">
-        <v>5386.28423176512</v>
+        <v>1944.05462522432</v>
       </c>
       <c r="S3">
-        <v>0.1142343874174693</v>
+        <v>0.1278395350892616</v>
       </c>
       <c r="T3">
-        <v>0.1142343874174693</v>
+        <v>0.1278395350892616</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -667,16 +667,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>21.443826</v>
+        <v>7.739652666666667</v>
       </c>
       <c r="H4">
-        <v>64.331478</v>
+        <v>23.218958</v>
       </c>
       <c r="I4">
-        <v>0.6062978927103765</v>
+        <v>0.6488398532974882</v>
       </c>
       <c r="J4">
-        <v>0.6062978927103765</v>
+        <v>0.6488398532974882</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>20.29987433333334</v>
+        <v>21.95609833333333</v>
       </c>
       <c r="N4">
-        <v>60.89962300000001</v>
+        <v>65.868295</v>
       </c>
       <c r="O4">
-        <v>0.1370438858982645</v>
+        <v>0.1550023737603119</v>
       </c>
       <c r="P4">
-        <v>0.1370438858982645</v>
+        <v>0.1550023737603119</v>
       </c>
       <c r="Q4">
-        <v>435.3069730258661</v>
+        <v>169.9325750151789</v>
       </c>
       <c r="R4">
-        <v>3917.762757232795</v>
+        <v>1529.39317513661</v>
       </c>
       <c r="S4">
-        <v>0.08308941922895904</v>
+        <v>0.1005717174514032</v>
       </c>
       <c r="T4">
-        <v>0.08308941922895904</v>
+        <v>0.1005717174514032</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -729,16 +729,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>21.443826</v>
+        <v>7.739652666666667</v>
       </c>
       <c r="H5">
-        <v>64.331478</v>
+        <v>23.218958</v>
       </c>
       <c r="I5">
-        <v>0.6062978927103765</v>
+        <v>0.6488398532974882</v>
       </c>
       <c r="J5">
-        <v>0.6062978927103765</v>
+        <v>0.6488398532974882</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>27.85718966666667</v>
+        <v>13.23098133333333</v>
       </c>
       <c r="N5">
-        <v>83.571569</v>
+        <v>39.692944</v>
       </c>
       <c r="O5">
-        <v>0.1880631111029199</v>
+        <v>0.09340609987756826</v>
       </c>
       <c r="P5">
-        <v>0.1880631111029199</v>
+        <v>0.09340609987756825</v>
       </c>
       <c r="Q5">
-        <v>597.364728060998</v>
+        <v>102.4031999591502</v>
       </c>
       <c r="R5">
-        <v>5376.282552548982</v>
+        <v>921.628799632352</v>
       </c>
       <c r="S5">
-        <v>0.1140222679582577</v>
+        <v>0.06060560014165191</v>
       </c>
       <c r="T5">
-        <v>0.1140222679582578</v>
+        <v>0.06060560014165191</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,16 +791,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>21.443826</v>
+        <v>7.739652666666667</v>
       </c>
       <c r="H6">
-        <v>64.331478</v>
+        <v>23.218958</v>
       </c>
       <c r="I6">
-        <v>0.6062978927103765</v>
+        <v>0.6488398532974882</v>
       </c>
       <c r="J6">
-        <v>0.6062978927103765</v>
+        <v>0.6488398532974882</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>17.57385566666667</v>
+        <v>22.080681</v>
       </c>
       <c r="N6">
-        <v>52.72156700000001</v>
+        <v>66.242043</v>
       </c>
       <c r="O6">
-        <v>0.1186406098495176</v>
+        <v>0.1558818838066577</v>
       </c>
       <c r="P6">
-        <v>0.1186406098495176</v>
+        <v>0.1558818838066577</v>
       </c>
       <c r="Q6">
-        <v>376.8507030651141</v>
+        <v>170.896801583466</v>
       </c>
       <c r="R6">
-        <v>3391.656327586027</v>
+        <v>1538.071214251194</v>
       </c>
       <c r="S6">
-        <v>0.07193155174163644</v>
+        <v>0.1011423786208479</v>
       </c>
       <c r="T6">
-        <v>0.07193155174163646</v>
+        <v>0.1011423786208479</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,16 +853,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>21.443826</v>
+        <v>7.739652666666667</v>
       </c>
       <c r="H7">
-        <v>64.331478</v>
+        <v>23.218958</v>
       </c>
       <c r="I7">
-        <v>0.6062978927103765</v>
+        <v>0.6488398532974882</v>
       </c>
       <c r="J7">
-        <v>0.6062978927103765</v>
+        <v>0.6488398532974882</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>22.468903</v>
+        <v>19.66149466666667</v>
       </c>
       <c r="N7">
-        <v>67.40670900000001</v>
+        <v>58.984484</v>
       </c>
       <c r="O7">
-        <v>0.1516869379794603</v>
+        <v>0.1388032745500265</v>
       </c>
       <c r="P7">
-        <v>0.1516869379794604</v>
+        <v>0.1388032745500265</v>
       </c>
       <c r="Q7">
-        <v>481.819246342878</v>
+        <v>152.1731396275191</v>
       </c>
       <c r="R7">
-        <v>4336.373217085903</v>
+        <v>1369.558256647672</v>
       </c>
       <c r="S7">
-        <v>0.09196747084863638</v>
+        <v>0.09006109629625017</v>
       </c>
       <c r="T7">
-        <v>0.09196747084863639</v>
+        <v>0.09006109629625017</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -921,10 +921,10 @@
         <v>10.925382</v>
       </c>
       <c r="I8">
-        <v>0.1029672609675761</v>
+        <v>0.3053032463428815</v>
       </c>
       <c r="J8">
-        <v>0.1029672609675761</v>
+        <v>0.3053032463428815</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>32.017979</v>
+        <v>36.81180933333333</v>
       </c>
       <c r="N8">
-        <v>96.05393699999999</v>
+        <v>110.435428</v>
       </c>
       <c r="O8">
-        <v>0.2161524839374963</v>
+        <v>0.2598784967371026</v>
       </c>
       <c r="P8">
-        <v>0.2161524839374964</v>
+        <v>0.2598784967371026</v>
       </c>
       <c r="Q8">
-        <v>116.602883814326</v>
+        <v>134.0610263592773</v>
       </c>
       <c r="R8">
-        <v>1049.425954328934</v>
+        <v>1206.549237233496</v>
       </c>
       <c r="S8">
-        <v>0.02225662922238198</v>
+        <v>0.07934174870854536</v>
       </c>
       <c r="T8">
-        <v>0.02225662922238198</v>
+        <v>0.07934174870854536</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -983,10 +983,10 @@
         <v>10.925382</v>
       </c>
       <c r="I9">
-        <v>0.1029672609675761</v>
+        <v>0.3053032463428815</v>
       </c>
       <c r="J9">
-        <v>0.1029672609675761</v>
+        <v>0.3053032463428815</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -1001,10 +1001,10 @@
         <v>83.72704</v>
       </c>
       <c r="O9">
-        <v>0.1884129712323412</v>
+        <v>0.1970278712683331</v>
       </c>
       <c r="P9">
-        <v>0.1884129712323412</v>
+        <v>0.197027871268333</v>
       </c>
       <c r="Q9">
         <v>101.6388773032534</v>
@@ -1013,10 +1013,10 @@
         <v>914.7498957292801</v>
       </c>
       <c r="S9">
-        <v>0.01940036757855688</v>
+        <v>0.06015324871824943</v>
       </c>
       <c r="T9">
-        <v>0.01940036757855688</v>
+        <v>0.06015324871824942</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1045,10 +1045,10 @@
         <v>10.925382</v>
       </c>
       <c r="I10">
-        <v>0.1029672609675761</v>
+        <v>0.3053032463428815</v>
       </c>
       <c r="J10">
-        <v>0.1029672609675761</v>
+        <v>0.3053032463428815</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1057,28 +1057,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>20.29987433333334</v>
+        <v>21.95609833333333</v>
       </c>
       <c r="N10">
-        <v>60.89962300000001</v>
+        <v>65.868295</v>
       </c>
       <c r="O10">
-        <v>0.1370438858982645</v>
+        <v>0.1550023737603119</v>
       </c>
       <c r="P10">
-        <v>0.1370438858982645</v>
+        <v>0.1550023737603119</v>
       </c>
       <c r="Q10">
-        <v>73.92796054788735</v>
+        <v>79.95958717374334</v>
       </c>
       <c r="R10">
-        <v>665.3516449309861</v>
+        <v>719.6362845636901</v>
       </c>
       <c r="S10">
-        <v>0.01411103356329732</v>
+        <v>0.0473227278998759</v>
       </c>
       <c r="T10">
-        <v>0.01411103356329732</v>
+        <v>0.0473227278998759</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1107,10 +1107,10 @@
         <v>10.925382</v>
       </c>
       <c r="I11">
-        <v>0.1029672609675761</v>
+        <v>0.3053032463428815</v>
       </c>
       <c r="J11">
-        <v>0.1029672609675761</v>
+        <v>0.3053032463428815</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>27.85718966666667</v>
+        <v>13.23098133333333</v>
       </c>
       <c r="N11">
-        <v>83.571569</v>
+        <v>39.692944</v>
       </c>
       <c r="O11">
-        <v>0.1880631111029199</v>
+        <v>0.09340609987756826</v>
       </c>
       <c r="P11">
-        <v>0.1880631111029199</v>
+        <v>0.09340609987756825</v>
       </c>
       <c r="Q11">
-        <v>101.4501461849287</v>
+        <v>48.18450843384534</v>
       </c>
       <c r="R11">
-        <v>913.0513156643581</v>
+        <v>433.660575904608</v>
       </c>
       <c r="S11">
-        <v>0.01936434343930861</v>
+        <v>0.02851718552084901</v>
       </c>
       <c r="T11">
-        <v>0.01936434343930861</v>
+        <v>0.02851718552084901</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1169,10 +1169,10 @@
         <v>10.925382</v>
       </c>
       <c r="I12">
-        <v>0.1029672609675761</v>
+        <v>0.3053032463428815</v>
       </c>
       <c r="J12">
-        <v>0.1029672609675761</v>
+        <v>0.3053032463428815</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>17.57385566666667</v>
+        <v>22.080681</v>
       </c>
       <c r="N12">
-        <v>52.72156700000001</v>
+        <v>66.242043</v>
       </c>
       <c r="O12">
-        <v>0.1186406098495176</v>
+        <v>0.1558818838066577</v>
       </c>
       <c r="P12">
-        <v>0.1186406098495176</v>
+        <v>0.1558818838066577</v>
       </c>
       <c r="Q12">
-        <v>64.00036212373269</v>
+        <v>80.41329158171401</v>
       </c>
       <c r="R12">
-        <v>576.0032591135941</v>
+        <v>723.719624235426</v>
       </c>
       <c r="S12">
-        <v>0.01221609863572765</v>
+        <v>0.04759124517221645</v>
       </c>
       <c r="T12">
-        <v>0.01221609863572765</v>
+        <v>0.04759124517221645</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1231,10 +1231,10 @@
         <v>10.925382</v>
       </c>
       <c r="I13">
-        <v>0.1029672609675761</v>
+        <v>0.3053032463428815</v>
       </c>
       <c r="J13">
-        <v>0.1029672609675761</v>
+        <v>0.3053032463428815</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,28 +1243,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>22.468903</v>
+        <v>19.66149466666667</v>
       </c>
       <c r="N13">
-        <v>67.40670900000001</v>
+        <v>58.984484</v>
       </c>
       <c r="O13">
-        <v>0.1516869379794603</v>
+        <v>0.1388032745500265</v>
       </c>
       <c r="P13">
-        <v>0.1516869379794604</v>
+        <v>0.1388032745500265</v>
       </c>
       <c r="Q13">
-        <v>81.82711613198201</v>
+        <v>71.60311330809867</v>
       </c>
       <c r="R13">
-        <v>736.4440451878381</v>
+        <v>644.4280197728881</v>
       </c>
       <c r="S13">
-        <v>0.01561878852830362</v>
+        <v>0.04237709032314535</v>
       </c>
       <c r="T13">
-        <v>0.01561878852830362</v>
+        <v>0.04237709032314535</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1287,16 +1287,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>10.28284533333333</v>
+        <v>0.5470016666666667</v>
       </c>
       <c r="H14">
-        <v>30.848536</v>
+        <v>1.641005</v>
       </c>
       <c r="I14">
-        <v>0.2907348463220475</v>
+        <v>0.04585690035963046</v>
       </c>
       <c r="J14">
-        <v>0.2907348463220475</v>
+        <v>0.04585690035963046</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1305,28 +1305,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>32.017979</v>
+        <v>36.81180933333333</v>
       </c>
       <c r="N14">
-        <v>96.05393699999999</v>
+        <v>110.435428</v>
       </c>
       <c r="O14">
-        <v>0.2161524839374963</v>
+        <v>0.2598784967371026</v>
       </c>
       <c r="P14">
-        <v>0.2161524839374964</v>
+        <v>0.2598784967371026</v>
       </c>
       <c r="Q14">
-        <v>329.2359259429146</v>
+        <v>20.13612105834889</v>
       </c>
       <c r="R14">
-        <v>2963.123333486232</v>
+        <v>181.22508952514</v>
       </c>
       <c r="S14">
-        <v>0.06284305919969685</v>
+        <v>0.01191722233048387</v>
       </c>
       <c r="T14">
-        <v>0.06284305919969686</v>
+        <v>0.01191722233048386</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1349,16 +1349,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>10.28284533333333</v>
+        <v>0.5470016666666667</v>
       </c>
       <c r="H15">
-        <v>30.848536</v>
+        <v>1.641005</v>
       </c>
       <c r="I15">
-        <v>0.2907348463220475</v>
+        <v>0.04585690035963046</v>
       </c>
       <c r="J15">
-        <v>0.2907348463220475</v>
+        <v>0.04585690035963046</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1373,22 +1373,22 @@
         <v>83.72704</v>
       </c>
       <c r="O15">
-        <v>0.1884129712323412</v>
+        <v>0.1970278712683331</v>
       </c>
       <c r="P15">
-        <v>0.1884129712323412</v>
+        <v>0.197027871268333</v>
       </c>
       <c r="Q15">
-        <v>286.9840675126044</v>
+        <v>15.26627680835556</v>
       </c>
       <c r="R15">
-        <v>2582.85660761344</v>
+        <v>137.3964912752</v>
       </c>
       <c r="S15">
-        <v>0.05477821623631509</v>
+        <v>0.009035087460822048</v>
       </c>
       <c r="T15">
-        <v>0.0547782162363151</v>
+        <v>0.009035087460822044</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1411,16 +1411,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>10.28284533333333</v>
+        <v>0.5470016666666667</v>
       </c>
       <c r="H16">
-        <v>30.848536</v>
+        <v>1.641005</v>
       </c>
       <c r="I16">
-        <v>0.2907348463220475</v>
+        <v>0.04585690035963046</v>
       </c>
       <c r="J16">
-        <v>0.2907348463220475</v>
+        <v>0.04585690035963046</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1429,28 +1429,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>20.29987433333334</v>
+        <v>21.95609833333333</v>
       </c>
       <c r="N16">
-        <v>60.89962300000001</v>
+        <v>65.868295</v>
       </c>
       <c r="O16">
-        <v>0.1370438858982645</v>
+        <v>0.1550023737603119</v>
       </c>
       <c r="P16">
-        <v>0.1370438858982645</v>
+        <v>0.1550023737603119</v>
       </c>
       <c r="Q16">
-        <v>208.7404680557698</v>
+        <v>12.01002238183056</v>
       </c>
       <c r="R16">
-        <v>1878.664212501928</v>
+        <v>108.090201436475</v>
       </c>
       <c r="S16">
-        <v>0.03984343310600814</v>
+        <v>0.007107928409032824</v>
       </c>
       <c r="T16">
-        <v>0.03984343310600814</v>
+        <v>0.007107928409032822</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1473,16 +1473,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>10.28284533333333</v>
+        <v>0.5470016666666667</v>
       </c>
       <c r="H17">
-        <v>30.848536</v>
+        <v>1.641005</v>
       </c>
       <c r="I17">
-        <v>0.2907348463220475</v>
+        <v>0.04585690035963046</v>
       </c>
       <c r="J17">
-        <v>0.2907348463220475</v>
+        <v>0.04585690035963046</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1491,28 +1491,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>27.85718966666667</v>
+        <v>13.23098133333333</v>
       </c>
       <c r="N17">
-        <v>83.571569</v>
+        <v>39.692944</v>
       </c>
       <c r="O17">
-        <v>0.1880631111029199</v>
+        <v>0.09340609987756826</v>
       </c>
       <c r="P17">
-        <v>0.1880631111029199</v>
+        <v>0.09340609987756825</v>
       </c>
       <c r="Q17">
-        <v>286.4511727636649</v>
+        <v>7.237368840968889</v>
       </c>
       <c r="R17">
-        <v>2578.060554872984</v>
+        <v>65.13631956872</v>
       </c>
       <c r="S17">
-        <v>0.05467649970535357</v>
+        <v>0.004283314215067339</v>
       </c>
       <c r="T17">
-        <v>0.05467649970535358</v>
+        <v>0.004283314215067338</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1535,16 +1535,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>10.28284533333333</v>
+        <v>0.5470016666666667</v>
       </c>
       <c r="H18">
-        <v>30.848536</v>
+        <v>1.641005</v>
       </c>
       <c r="I18">
-        <v>0.2907348463220475</v>
+        <v>0.04585690035963046</v>
       </c>
       <c r="J18">
-        <v>0.2907348463220475</v>
+        <v>0.04585690035963046</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1553,28 +1553,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>17.57385566666667</v>
+        <v>22.080681</v>
       </c>
       <c r="N18">
-        <v>52.72156700000001</v>
+        <v>66.242043</v>
       </c>
       <c r="O18">
-        <v>0.1186406098495176</v>
+        <v>0.1558818838066577</v>
       </c>
       <c r="P18">
-        <v>0.1186406098495176</v>
+        <v>0.1558818838066577</v>
       </c>
       <c r="Q18">
-        <v>180.7092397306569</v>
+        <v>12.078169308135</v>
       </c>
       <c r="R18">
-        <v>1626.383157575912</v>
+        <v>108.703523773215</v>
       </c>
       <c r="S18">
-        <v>0.03449295947215349</v>
+        <v>0.007148260013593396</v>
       </c>
       <c r="T18">
-        <v>0.03449295947215349</v>
+        <v>0.007148260013593395</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1597,16 +1597,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>10.28284533333333</v>
+        <v>0.5470016666666667</v>
       </c>
       <c r="H19">
-        <v>30.848536</v>
+        <v>1.641005</v>
       </c>
       <c r="I19">
-        <v>0.2907348463220475</v>
+        <v>0.04585690035963046</v>
       </c>
       <c r="J19">
-        <v>0.2907348463220475</v>
+        <v>0.04585690035963046</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1615,28 +1615,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>22.468903</v>
+        <v>19.66149466666667</v>
       </c>
       <c r="N19">
-        <v>67.40670900000001</v>
+        <v>58.984484</v>
       </c>
       <c r="O19">
-        <v>0.1516869379794603</v>
+        <v>0.1388032745500265</v>
       </c>
       <c r="P19">
-        <v>0.1516869379794604</v>
+        <v>0.1388032745500265</v>
       </c>
       <c r="Q19">
-        <v>231.0442543586693</v>
+        <v>10.75487035182445</v>
       </c>
       <c r="R19">
-        <v>2079.398289228024</v>
+        <v>96.79383316642</v>
       </c>
       <c r="S19">
-        <v>0.04410067860252036</v>
+        <v>0.006365087930630996</v>
       </c>
       <c r="T19">
-        <v>0.04410067860252036</v>
+        <v>0.006365087930630995</v>
       </c>
     </row>
   </sheetData>
